--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium With Java\Marsh framework\newtours.demoaut.com\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC06D684-53D1-475C-B3BC-3B933070712A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{65CA8B9A-0091-4D86-B80D-07C0502B7D40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20550" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TestName</t>
   </si>
@@ -80,16 +76,7 @@
     <t>TestData14</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Flights</t>
-  </si>
-  <si>
-    <t>Hotels</t>
-  </si>
-  <si>
-    <t>Car Rentals</t>
+    <t>12/25/2019 - 12/25/2019</t>
   </si>
 </sst>
 </file>
@@ -417,7 +404,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,15 +480,9 @@
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{65CA8B9A-0091-4D86-B80D-07C0502B7D40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium With Java\GitStuff\fox.webautomation.com\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213A1A6-4B35-4350-AA5E-38CD7548EF1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20550" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TestName</t>
   </si>
@@ -77,6 +81,9 @@
   </si>
   <si>
     <t>12/25/2019 - 12/25/2019</t>
+  </si>
+  <si>
+    <t>Sick</t>
   </si>
 </sst>
 </file>
@@ -404,7 +411,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +487,9 @@
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium With Java\GitStuff\fox.webautomation.com\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fox.webautomation.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213A1A6-4B35-4350-AA5E-38CD7548EF1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE486E4-1755-4766-926F-9F60E56D3E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>TestName</t>
   </si>
@@ -80,10 +80,19 @@
     <t>TestData14</t>
   </si>
   <si>
-    <t>12/25/2019 - 12/25/2019</t>
-  </si>
-  <si>
     <t>Sick</t>
+  </si>
+  <si>
+    <t>9608.70 - Police Department - Studio: Guards-001</t>
+  </si>
+  <si>
+    <t>Awaiting Approval</t>
+  </si>
+  <si>
+    <t>01/15/2020 - 01/15/2020</t>
+  </si>
+  <si>
+    <t>01/15/2020</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -128,6 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +421,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +436,7 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
@@ -485,19 +495,35 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1"/>
     </row>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fox.webautomation.com\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium With Java\GitStuff\fox.webautomation.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE486E4-1755-4766-926F-9F60E56D3E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47827F1E-AC30-425D-ADB3-D1349033FC77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,10 @@
     <t>Awaiting Approval</t>
   </si>
   <si>
-    <t>01/15/2020 - 01/15/2020</t>
-  </si>
-  <si>
-    <t>01/15/2020</t>
+    <t>01/16/2020 - 01/16/2020</t>
+  </si>
+  <si>
+    <t>01/16/2020</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium With Java\GitStuff\fox.webautomation.com\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fox.webautomation.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47827F1E-AC30-425D-ADB3-D1349033FC77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239363B9-9F1E-4C34-9D77-18E43BBCE580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,10 @@
     <t>Awaiting Approval</t>
   </si>
   <si>
-    <t>01/16/2020 - 01/16/2020</t>
-  </si>
-  <si>
-    <t>01/16/2020</t>
+    <t>01/22/2020 - 01/22/2020</t>
+  </si>
+  <si>
+    <t>01/22/2020</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fox.webautomation.com\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium With Java\GitStuff\fox.webautomation.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239363B9-9F1E-4C34-9D77-18E43BBCE580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8896A5-F787-476C-A741-A4D06763654D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,10 +89,10 @@
     <t>Awaiting Approval</t>
   </si>
   <si>
-    <t>01/22/2020 - 01/22/2020</t>
-  </si>
-  <si>
-    <t>01/22/2020</t>
+    <t>02/05/2020 - 02/05/2020</t>
+  </si>
+  <si>
+    <t>02/05/2020</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium With Java\GitStuff\fox.webautomation.com\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fox.webautomation.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8896A5-F787-476C-A741-A4D06763654D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1DAE3-F989-4482-941F-7F8A9ECBC0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>TestName</t>
   </si>
@@ -65,9 +65,6 @@
     <t>test1</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>TestData11</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>02/05/2020</t>
+  </si>
+  <si>
+    <t>salesforce_lightening_app_Test1</t>
+  </si>
+  <si>
+    <t>February 2020</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -138,6 +141,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,12 +425,12 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
@@ -478,16 +482,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -495,22 +499,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>8</v>
@@ -519,19 +523,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
